--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Ska fixas:</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Annat</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -490,7 +490,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -512,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -556,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
